--- a/xlsx/自相似_intext.xlsx
+++ b/xlsx/自相似_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
   <si>
     <t>自相似</t>
   </si>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B2%B8%E7%B7%9A</t>
   </si>
   <si>
-    <t>海岸線</t>
+    <t>海岸线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E5%BD%A2</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%93%E6%92%B2%E7%B6%AD%E6%95%B8</t>
   </si>
   <si>
-    <t>拓撲維數</t>
+    <t>拓扑维数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E7%9B%92%E7%BB%B4%E6%95%B0</t>
@@ -107,15 +107,12 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BE%8D%E5%BD%A2%E6%9B%B2%E7%B7%9A</t>
   </si>
   <si>
-    <t>龍形曲線</t>
+    <t>龙形曲线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E8%B5%AB%E6%9B%B2%E7%B7%9A</t>
   </si>
   <si>
-    <t>科赫曲線</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%A8%E6%A0%BC%E6%B5%B7%E7%BB%B5</t>
   </si>
   <si>
@@ -131,7 +128,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AC%9D%E7%88%BE%E8%B3%93%E6%96%AF%E5%9F%BA%E4%B8%89%E8%A7%92%E5%BD%A2</t>
   </si>
   <si>
-    <t>謝爾賓斯基三角形</t>
+    <t>谢尔宾斯基三角形</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Space-filling_curve</t>
@@ -155,25 +152,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E5%B3%B0%E6%98%A0%E8%B1%A1</t>
   </si>
   <si>
-    <t>單峰映象</t>
+    <t>单峰映象</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E7%B6%ADC%E5%BD%A2%E6%9B%B2%E7%B7%9A</t>
   </si>
   <si>
-    <t>萊維C形曲線</t>
+    <t>莱维C形曲线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E7%88%BE%E4%BC%AF%E7%89%B9%E6%9B%B2%E7%B7%9A</t>
   </si>
   <si>
-    <t>希爾伯特曲線</t>
+    <t>希尔伯特曲线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%87%E7%95%B0%E5%90%B8%E5%AD%90</t>
   </si>
   <si>
-    <t>奇異吸子</t>
+    <t>奇异吸子</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Multifractal_system</t>
@@ -185,7 +182,7 @@
     <t>https://zh.wikipedia.org/wiki/L%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>L系統</t>
+    <t>L系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/H%E6%A0%91</t>
@@ -287,25 +284,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E9%87%8C%E6%A0%BC%C2%B7%E9%A6%AE%C2%B7%E7%A7%91%E8%B5%AB</t>
   </si>
   <si>
-    <t>海里格·馮·科赫</t>
+    <t>海里格·冯·科赫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E7%9A%AE%E5%9F%83%E7%88%BE%C2%B7%E8%90%8A%E7%B6%AD</t>
   </si>
   <si>
-    <t>保羅·皮埃爾·萊維</t>
+    <t>保罗·皮埃尔·莱维</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%C2%B7%E6%9D%8E%E4%BA%9E%E6%99%AE%E8%AB%BE%E5%A4%AB</t>
   </si>
   <si>
-    <t>亞歷山大·李亞普諾夫</t>
+    <t>亚历山大·李亚普诺夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E8%8F%AF%C2%B7%E6%9B%BC%E5%BE%B7%E5%8D%9A</t>
   </si>
   <si>
-    <t>本華·曼德博</t>
+    <t>本华·曼德博</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Lewis_Fry_Richardson</t>
@@ -323,7 +320,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E7%9A%84%E6%B5%B7%E5%B2%B8%E7%B7%9A%E6%9C%89%E5%A4%9A%E9%95%B7%EF%BC%9F%E7%B5%B1%E8%A8%88%E8%87%AA%E7%9B%B8%E4%BC%BC%E5%92%8C%E5%88%86%E6%95%B8%E7%B6%AD%E5%BA%A6</t>
   </si>
   <si>
-    <t>英國的海岸線有多長？統計自相似和分數維度</t>
+    <t>英国的海岸线有多长？统计自相似和分数维度</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Coastline_paradox</t>
@@ -1153,7 +1150,7 @@
         <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1179,10 +1176,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1208,10 +1205,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1237,10 +1234,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1266,10 +1263,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>2</v>
@@ -1295,10 +1292,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1324,10 +1321,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1353,10 +1350,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1382,10 +1379,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1411,10 +1408,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1440,10 +1437,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1469,10 +1466,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1498,10 +1495,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1527,10 +1524,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1556,10 +1553,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1585,10 +1582,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1614,10 +1611,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1643,10 +1640,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1672,10 +1669,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1701,10 +1698,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1730,10 +1727,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1759,10 +1756,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1788,10 +1785,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1817,10 +1814,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1846,10 +1843,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -1875,10 +1872,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -1904,10 +1901,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -1933,10 +1930,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -1962,10 +1959,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -1991,10 +1988,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2020,10 +2017,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2049,10 +2046,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2078,10 +2075,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2107,10 +2104,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2136,10 +2133,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2165,10 +2162,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2194,10 +2191,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2223,10 +2220,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2252,10 +2249,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2281,10 +2278,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
